--- a/xlsx_files_for_testing_plans_insert_method/test_plan1.xlsx
+++ b/xlsx_files_for_testing_plans_insert_method/test_plan1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a0fe71ac194dd8ed/Рабочий стол/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="8_{BFACA171-7C68-4292-BD09-672B8B97E739}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B9A9474E-AF2D-42EA-9177-1B2F303AE9E7}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="8_{BFACA171-7C68-4292-BD09-672B8B97E739}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8F49F4DD-63BC-45C3-ACAC-E7704AF0F080}"/>
   <bookViews>
     <workbookView xWindow="2220" yWindow="1185" windowWidth="24465" windowHeight="13830" xr2:uid="{F946F433-AD66-4F40-A79D-B652CB94B1FA}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>period</t>
   </si>
@@ -42,7 +42,13 @@
     <t>sum</t>
   </si>
   <si>
-    <t>category_id</t>
+    <t>category</t>
+  </si>
+  <si>
+    <t>збір</t>
+  </si>
+  <si>
+    <t>видача</t>
   </si>
 </sst>
 </file>
@@ -82,11 +88,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -117,6 +122,14 @@
 </file>
 
 <file path=xl/persons/person2.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person3.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person4.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -420,7 +433,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -442,24 +455,24 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>44774</v>
+        <v>44835</v>
       </c>
       <c r="B2">
         <v>224000</v>
       </c>
-      <c r="C2" s="3">
-        <v>3</v>
+      <c r="C2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>44774</v>
+        <v>44835</v>
       </c>
       <c r="B3">
         <v>1209000</v>
       </c>
-      <c r="C3" s="3">
-        <v>4</v>
+      <c r="C3" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
